--- a/data/trans_dic/P64D$andando_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1135525818211619</v>
+        <v>0.1122134672816987</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.213606117852776</v>
+        <v>0.2144090307223048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1713500484566212</v>
+        <v>0.1702266240952062</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2302968541950947</v>
+        <v>0.2255424327942482</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3315659083604182</v>
+        <v>0.3313371547684709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2554361782851073</v>
+        <v>0.2511114763121138</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2053531447389053</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2926079410771426</v>
+        <v>0.2926079410771427</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2406013452183149</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.142544287022196</v>
+        <v>0.1405611280206351</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2310730867088163</v>
+        <v>0.2330014908647859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1973475004183962</v>
+        <v>0.1957629887593223</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.273058390944793</v>
+        <v>0.270980712930158</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3578555269620275</v>
+        <v>0.3532986639701501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2873227711439933</v>
+        <v>0.2940225135497953</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.4133741519603567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3177763135304752</v>
+        <v>0.3177763135304753</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1806149814784004</v>
+        <v>0.1812957009755383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3294867730700982</v>
+        <v>0.3408357080413748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2661551408997923</v>
+        <v>0.2660978690409346</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3250122986855034</v>
+        <v>0.3116729256424385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4859332826262915</v>
+        <v>0.4963556444938548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3733611556239744</v>
+        <v>0.3693003087840566</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2105119084365198</v>
+        <v>0.2105119084365197</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3354148658859748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2681714894324319</v>
+        <v>0.268171489432432</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1472907465143645</v>
+        <v>0.1444780135077203</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2612459211267878</v>
+        <v>0.2680187118441333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2204556151209689</v>
+        <v>0.2208326334452887</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2896625929863634</v>
+        <v>0.2992779772101362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4095779515329326</v>
+        <v>0.4147005474707823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.323973642971068</v>
+        <v>0.3243390714319742</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.5738825110768531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4985601439462997</v>
+        <v>0.4985601439462996</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3619749540846013</v>
+        <v>0.3584853786094225</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5046760267879736</v>
+        <v>0.5022998209843144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4521490313542338</v>
+        <v>0.4397104402323279</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5099022796731713</v>
+        <v>0.511976375112002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6428890512219051</v>
+        <v>0.6394419743537993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5543635808452035</v>
+        <v>0.5496278182935463</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.2778434741785957</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.5447193230070236</v>
+        <v>0.544719323007024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3822363819345651</v>
+        <v>0.382236381934565</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2118440634716132</v>
+        <v>0.2086408432070402</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4532353179418198</v>
+        <v>0.4531098211613849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3255711268863382</v>
+        <v>0.3299791607524941</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3614450444492198</v>
+        <v>0.3490657661391483</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6366729717551435</v>
+        <v>0.6372307150653909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4419097194962048</v>
+        <v>0.4416285492145367</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.09768486070993392</v>
+        <v>0.0976848607099339</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.2498204462895299</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06820718957642075</v>
+        <v>0.06735522932737836</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2095854521558241</v>
+        <v>0.2110699962806909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1431510127981982</v>
+        <v>0.1424323643263573</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1389996053724602</v>
+        <v>0.1386382641566112</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2915221324652993</v>
+        <v>0.2963357946554511</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2026491805335406</v>
+        <v>0.2006209319398368</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2475179215814772</v>
+        <v>0.2473205752809129</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4029497939179547</v>
+        <v>0.4013665326659755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3191708812339743</v>
+        <v>0.323165025502298</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3417519452261579</v>
+        <v>0.3385404511246683</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5052135726669894</v>
+        <v>0.5046002365833573</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3946410216903362</v>
+        <v>0.3904591690457592</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.3645063182706986</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22512</v>
+        <v>22247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32314</v>
+        <v>32436</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59892</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45657</v>
+        <v>44715</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50159</v>
+        <v>50124</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89283</v>
+        <v>87772</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35745</v>
+        <v>35247</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39272</v>
+        <v>39600</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83028</v>
+        <v>82361</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>68473</v>
+        <v>67952</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60820</v>
+        <v>60046</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120882</v>
+        <v>123701</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26786</v>
+        <v>26887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39637</v>
+        <v>41002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>71490</v>
+        <v>71474</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48200</v>
+        <v>46222</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58457</v>
+        <v>59711</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>100285</v>
+        <v>99194</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30649</v>
+        <v>30064</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46614</v>
+        <v>47823</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>85210</v>
+        <v>85356</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60275</v>
+        <v>62276</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>73081</v>
+        <v>73995</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>125222</v>
+        <v>125363</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48679</v>
+        <v>48209</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>59442</v>
+        <v>59162</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>114060</v>
+        <v>110923</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>68572</v>
+        <v>68851</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>75721</v>
+        <v>75315</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>139845</v>
+        <v>138651</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>28501</v>
+        <v>28070</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39176</v>
+        <v>39165</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>71942</v>
+        <v>72916</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>48627</v>
+        <v>46962</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>55032</v>
+        <v>55080</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>97650</v>
+        <v>97588</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>26081</v>
+        <v>25755</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>74708</v>
+        <v>75237</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>105765</v>
+        <v>105234</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53151</v>
+        <v>53012</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>103915</v>
+        <v>105630</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>149724</v>
+        <v>148226</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>111727</v>
+        <v>111638</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>125292</v>
+        <v>124800</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>243313</v>
+        <v>246358</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>154264</v>
+        <v>152814</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>157090</v>
+        <v>156899</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>300846</v>
+        <v>297658</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
     </row>
     <row r="40">
